--- a/test_data/case.xlsx
+++ b/test_data/case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -1363,8 +1363,8 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>select leave_amount from member where id={}</t>
+          <t>select leave_amount from futureloan.member where id={}</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>select leave_amount from member where id={}</t>
+          <t>select leave_amount from futureloan.member where id={}</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>select leave_amount from member where id={}</t>
+          <t>select leave_amount from futureloan.member where id={}</t>
         </is>
       </c>
     </row>
@@ -1946,8 +1946,8 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -2040,6 +2040,16 @@
           <t>{'code': 0, 'msg': 'OK'}</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>select leave_amount from futureloan.member where id={}</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2075,6 +2085,16 @@
           <t>{'code': 0, 'msg': 'OK'}</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>select leave_amount from futureloan.member where id={}</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2110,6 +2130,16 @@
           <t>{'code': 0, 'msg': 'OK'}</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>select leave_amount from futureloan.member where id={}</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2145,6 +2175,11 @@
           <t>{'code': 2, 'msg': '金额必须大于0并且小于或者等于500000'}</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>执行不通过</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2180,6 +2215,11 @@
           <t>{'code': 1, 'msg': '用户id不能为空'}</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>执行不通过</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2215,6 +2255,11 @@
           <t>{'code': 2, 'msg': '金额必须是数值型'}</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>执行不通过</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="14.45" customHeight="1">
       <c r="A8" t="n">
@@ -2250,6 +2295,11 @@
           <t>{'code': 1007, 'msg': '无权限访问，请检查参数'}</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>执行不通过</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="14.45" customHeight="1">
       <c r="A9" t="n">
@@ -2285,6 +2335,11 @@
           <t>{'code': 2, 'msg': '金额必须大于0并且小于或者等于500000'}</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>执行不通过</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="14.45" customHeight="1">
       <c r="A10" t="n">
@@ -2320,6 +2375,11 @@
           <t>{'code': 2, 'msg': '金额必须大于0并且小于或者等于500000'}</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>执行不通过</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="14.45" customHeight="1">
       <c r="A11" t="n">
@@ -2355,6 +2415,11 @@
           <t>{'code': 2, 'msg': '手机号为空'}</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>执行不通过</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="14.45" customHeight="1">
       <c r="A12" t="n">
@@ -2390,6 +2455,11 @@
           <t>{'code': 2, 'msg': '格式错误'}</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>执行不通过</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2423,6 +2493,11 @@
       <c r="G13" t="inlineStr">
         <is>
           <t>{'code': 2, 'msg': '格式错误'}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>执行不通过</t>
         </is>
       </c>
     </row>

--- a/test_data/case.xlsx
+++ b/test_data/case.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7710" windowWidth="19890"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="register" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="invest" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="loanadd" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="loanaudit" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="21">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -28,36 +31,351 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
+      <name val="Courier New"/>
       <charset val="134"/>
-      <sz val="9"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <sz val="10.45"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -65,21 +383,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="14" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="12" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="6" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="30" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -194,7 +802,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,7 +837,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,7 +1040,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -448,12 +1055,12 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="5"/>
   <cols>
-    <col width="9.5" customWidth="1" min="1" max="1"/>
-    <col width="9.625" customWidth="1" min="3" max="3"/>
-    <col width="26.625" customWidth="1" min="4" max="4"/>
-    <col width="58.125" customWidth="1" min="6" max="6"/>
+    <col customWidth="1" max="1" min="1" width="9.5"/>
+    <col customWidth="1" max="3" min="3" width="9.625"/>
+    <col customWidth="1" max="4" min="4" width="26.625"/>
+    <col customWidth="1" max="6" min="6" width="58.125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -699,13 +1306,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -718,11 +1325,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col width="39.25" customWidth="1" min="2" max="2"/>
-    <col width="15.375" customWidth="1" min="3" max="3"/>
-    <col width="37.75" customWidth="1" min="4" max="4"/>
-    <col width="44.875" customWidth="1" min="6" max="6"/>
-    <col width="41.25" customWidth="1" min="7" max="7"/>
+    <col customWidth="1" max="2" min="2" width="39.25"/>
+    <col customWidth="1" max="3" min="3" width="15.375"/>
+    <col customWidth="1" max="4" min="4" width="37.75"/>
+    <col customWidth="1" max="6" min="6" width="44.875"/>
+    <col customWidth="1" max="7" min="7" width="41.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -781,7 +1388,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -821,7 +1428,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -847,7 +1454,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="40.5" customHeight="1">
+    <row customHeight="1" ht="40.5" r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -861,7 +1468,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -871,7 +1478,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#mobilie_id#",
     "pwd":"11111111",
@@ -889,7 +1496,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="40.5" customHeight="1">
+    <row customHeight="1" ht="40.5" r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -903,7 +1510,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -913,7 +1520,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#mobile_phone#",
     "pwd":"11111111",
@@ -931,7 +1538,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="40.5" customHeight="1">
+    <row customHeight="1" ht="40.5" r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -945,7 +1552,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -955,7 +1562,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>{"mobile_phone":"#mobile_phone#",
     "pwd":"11111111",
@@ -987,7 +1594,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1013,7 +1620,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="14.45" customHeight="1">
+    <row customHeight="1" ht="14.45" r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
@@ -1027,7 +1634,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1053,7 +1660,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="14.45" customHeight="1">
+    <row customHeight="1" ht="14.45" r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
@@ -1067,7 +1674,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1093,7 +1700,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="14.45" customHeight="1">
+    <row customHeight="1" ht="14.45" r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
@@ -1107,7 +1714,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1133,7 +1740,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="14.45" customHeight="1">
+    <row customHeight="1" ht="14.45" r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
@@ -1147,7 +1754,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1173,7 +1780,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="14.45" customHeight="1">
+    <row customHeight="1" ht="14.45" r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
@@ -1187,7 +1794,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1227,7 +1834,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1267,7 +1874,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1307,7 +1914,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>/member/register</t>
         </is>
@@ -1335,28 +1942,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" display="http://api.lemonban.com/futureloan/member/register" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" display="http://api.lemonban.com/futureloan/member/register" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D4" display="http://api.lemonban.com/futureloan/member/register" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D5" display="http://api.lemonban.com/futureloan/member/register" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D6" display="http://api.lemonban.com/futureloan/member/register" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D7" display="http://api.lemonban.com/futureloan/member/register" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D8" display="http://api.lemonban.com/futureloan/member/register" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D9" display="http://api.lemonban.com/futureloan/member/register" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D10" display="http://api.lemonban.com/futureloan/member/register" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D11" display="http://api.lemonban.com/futureloan/member/register" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D12" display="http://api.lemonban.com/futureloan/member/register" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D13" display="http://api.lemonban.com/futureloan/member/register" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D14" display="http://api.lemonban.com/futureloan/member/register" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D15" display="http://api.lemonban.com/futureloan/member/register" r:id="rId14"/>
+    <hyperlink display="/member/register" ref="D2" r:id="rId1"/>
+    <hyperlink display="/member/register" ref="D3" r:id="rId2"/>
+    <hyperlink display="/member/register" ref="D4" r:id="rId3"/>
+    <hyperlink display="/member/register" ref="D5" r:id="rId4"/>
+    <hyperlink display="/member/register" ref="D6" r:id="rId5"/>
+    <hyperlink display="/member/register" ref="D7" r:id="rId6"/>
+    <hyperlink display="/member/register" ref="D8" r:id="rId7"/>
+    <hyperlink display="/member/register" ref="D9" r:id="rId8"/>
+    <hyperlink display="/member/register" ref="D10" r:id="rId9"/>
+    <hyperlink display="/member/register" ref="D11" r:id="rId10"/>
+    <hyperlink display="/member/register" ref="D12" r:id="rId11"/>
+    <hyperlink display="/member/register" ref="D13" r:id="rId12"/>
+    <hyperlink display="/member/register" ref="D14" r:id="rId13"/>
+    <hyperlink display="/member/register" ref="D15" r:id="rId14"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1369,11 +1976,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="15.375" customWidth="1" min="3" max="3"/>
-    <col width="19.125" customWidth="1" min="4" max="4"/>
-    <col width="44.875" customWidth="1" min="6" max="6"/>
-    <col width="41.25" customWidth="1" min="7" max="7"/>
+    <col customWidth="1" max="2" min="2" width="20"/>
+    <col customWidth="1" max="3" min="3" width="15.375"/>
+    <col customWidth="1" max="4" min="4" width="19.125"/>
+    <col customWidth="1" max="6" min="6" width="44.875"/>
+    <col customWidth="1" max="7" min="7" width="41.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1678,7 +2285,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="14.45" customHeight="1">
+    <row customHeight="1" ht="14.45" r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
@@ -1718,7 +2325,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="14.45" customHeight="1">
+    <row customHeight="1" ht="14.45" r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
@@ -1758,7 +2365,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="14.45" customHeight="1">
+    <row customHeight="1" ht="14.45" r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
@@ -1798,7 +2405,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="14.45" customHeight="1">
+    <row customHeight="1" ht="14.45" r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
@@ -1838,7 +2445,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="14.45" customHeight="1">
+    <row customHeight="1" ht="14.45" r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
@@ -1920,43 +2527,43 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D10" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D11" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D12" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D13" r:id="rId12"/>
+    <hyperlink display="/member/recharge" ref="D2" r:id="rId1"/>
+    <hyperlink display="/member/recharge" ref="D3" r:id="rId2"/>
+    <hyperlink display="/member/recharge" ref="D4" r:id="rId3"/>
+    <hyperlink display="/member/recharge" ref="D5" r:id="rId4"/>
+    <hyperlink display="/member/recharge" ref="D6" r:id="rId5"/>
+    <hyperlink display="/member/recharge" ref="D7" r:id="rId6"/>
+    <hyperlink display="/member/recharge" ref="D8" r:id="rId7"/>
+    <hyperlink display="/member/recharge" ref="D9" r:id="rId8"/>
+    <hyperlink display="/member/recharge" ref="D10" r:id="rId9"/>
+    <hyperlink display="/member/recharge" ref="D11" r:id="rId10"/>
+    <hyperlink display="/member/recharge" ref="D12" r:id="rId11"/>
+    <hyperlink display="/member/recharge" ref="D13" r:id="rId12"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="15.375" customWidth="1" min="3" max="3"/>
-    <col width="19.125" customWidth="1" min="4" max="4"/>
-    <col width="44.875" customWidth="1" min="6" max="6"/>
-    <col width="41.25" customWidth="1" min="7" max="7"/>
+    <col customWidth="1" max="2" min="2" width="20"/>
+    <col customWidth="1" max="3" min="3" width="15.375"/>
+    <col customWidth="1" max="4" min="4" width="19.125"/>
+    <col customWidth="1" max="6" min="6" width="44.875"/>
+    <col customWidth="1" max="7" min="7" width="41.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2261,7 +2868,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="14.45" customHeight="1">
+    <row customHeight="1" ht="14.45" r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
@@ -2301,7 +2908,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="14.45" customHeight="1">
+    <row customHeight="1" ht="14.45" r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
@@ -2341,7 +2948,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="14.45" customHeight="1">
+    <row customHeight="1" ht="14.45" r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
@@ -2381,7 +2988,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="14.45" customHeight="1">
+    <row customHeight="1" ht="14.45" r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
@@ -2421,7 +3028,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="14.45" customHeight="1">
+    <row customHeight="1" ht="14.45" r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
@@ -2503,20 +3110,2108 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D10" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D11" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D12" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D13" r:id="rId12"/>
+    <hyperlink display="/member/withdraw" ref="D2" r:id="rId1"/>
+    <hyperlink display="/member/withdraw" ref="D3" r:id="rId2"/>
+    <hyperlink display="/member/withdraw" ref="D4" r:id="rId3"/>
+    <hyperlink display="/member/withdraw" ref="D5" r:id="rId4"/>
+    <hyperlink display="/member/withdraw" ref="D6" r:id="rId5"/>
+    <hyperlink display="/member/withdraw" ref="D7" r:id="rId6"/>
+    <hyperlink display="/member/withdraw" ref="D8" r:id="rId7"/>
+    <hyperlink display="/member/withdraw" ref="D9" r:id="rId8"/>
+    <hyperlink display="/member/withdraw" ref="D10" r:id="rId9"/>
+    <hyperlink display="/member/withdraw" ref="D11" r:id="rId10"/>
+    <hyperlink display="/member/withdraw" ref="D12" r:id="rId11"/>
+    <hyperlink display="/member/withdraw" ref="D13" r:id="rId12"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="26.775"/>
+    <col customWidth="1" max="4" min="4" width="16.8916666666667"/>
+    <col customWidth="1" max="6" min="6" width="68"/>
+    <col customWidth="1" max="7" min="7" width="37.775"/>
+    <col customWidth="1" max="8" min="8" width="19.5583333333333"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>投资成功</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>{"member_id":#invest_member_id#,"loan_id":#loan_id#,"amount":1000}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': 'OK'}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>投资100成功</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>{"member_id":#invest_member_id#,"loan_id":#loan_id#,"amount":100}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': 'OK'}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>投资500000成功</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{"member_id":#invest_member_id#,"loan_id":#loan_id#,"amount":500000}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': 'OK'}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>投资失败，金额为空</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{"member_id":#invest_member_id#,"loan_id":#loan_id#}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'code': 1, 'msg': '余额为空'}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>投资失败，金额为负</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{"member_id":#invest_member_id#,"loan_id":#loan_id#,"amount":-1000}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '充值金额必须大于100，并且可以被100整除'}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>投资失败，金额不符合规范</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{"member_id":#invest_member_id#,"loan_id":#loan_id#,"amount":110}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '充值金额必须大于100，并且可以被100整除'}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>投资失败，金额大于500000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>{"member_id":#invest_member_id#,"loan_id":#loan_id#,"amount":5001000}</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '该标可投金额不足,可投金额：500000.0'}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>投资失败，用户为空</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#,"amount":1000}</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{'code': 1, 'msg': '会员id为空'}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>投资失败，用户不存在</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>{"member_id":#invest_member_id#+10000,"loan_id":#loan_id#,"amount":1000}</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '会员不存在'}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>投资失败，项目为空</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>{"member_id":#invest_member_id#,"amount":1000}</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{'code': 1, 'msg': '项目id为空'}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>投资失败，项目审核未通过</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>{"member_id":#invest_member_id#,"loan_id":25,"amount":1000}</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '该项目不在竞标中状态'}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>投资失败，项目未审核</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>/member/invest</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>{"member_id":#invest_member_id#,"loan_id":3,"amount":1000}</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '该项目不在竞标中状态'}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="31.6666666666667"/>
+    <col customWidth="1" max="4" min="4" width="10.4416666666667"/>
+    <col customWidth="1" max="6" min="6" width="124.441666666667"/>
+    <col customWidth="1" max="8" min="7" width="33.5583333333333"/>
+    <col customWidth="1" max="9" min="9" width="44.5583333333333"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>新增成功，按月借款</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"按月借贷项目","amount":1100000,"loan_rate":16.5,"loan_term":10,"loan_date_type":1,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': 'OK'}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>select * from futureloan.loan where id={}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>新增成功，借款1月</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"借贷1月项目","amount":1200000,"loan_rate":16.5,"loan_term":1,"loan_date_type":1,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': 'OK'}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>select * from futureloan.loan where id={}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>新增成功，借款36月</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"借贷36月项目","amount":1300000,"loan_rate":16.5,"loan_term":36,"loan_date_type":1,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': 'OK'}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>select * from futureloan.loan where id={}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>新增成功，按天借款</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"按月借贷项目","amount":1400000,"loan_rate":16.5,"loan_term":10,"loan_date_type":2,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': 'OK'}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>select * from futureloan.loan where id={}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>新增成功，借款10天</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"借贷1月项目","amount":1500000,"loan_rate":16.5,"loan_term":10,"loan_date_type":2,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': 'OK'}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>select * from futureloan.loan where id={}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>新增成功，借款45天</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"借贷36月项目","amount":1600000,"loan_rate":16.5,"loan_term":45,"loan_date_type":2,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': 'OK'}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>select * from futureloan.loan where id={}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>新增成功，竞标1天</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"竞标1天借贷项目","amount":1700000,"loan_rate":16.5,"loan_term":10,"loan_date_type":1,"bidding_days":1}</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': 'OK'}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>select * from futureloan.loan where id={}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>新增成功，竞标10天</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"竞标10天借贷项目","amount":1800000,"loan_rate":16.5,"loan_term":10,"loan_date_type":1,"bidding_days":10}</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': 'OK'}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>select * from futureloan.loan where id={}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>新增失败，id为空</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>{"title":"id为空借贷项目","amount":100000.00,"loan_rate":16.5,"loan_term":10,"loan_date_type":1,"bidding_days":10}</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{'code': 1, 'msg': '用户id为空'}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>新增失败，id错误</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>{"member_id":11.11,"title":"id错误项目","amount":100000.00,"loan_rate":16.5,"loan_term":10,"loan_date_type":1,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '格式错误'}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>执行不通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>新增失败，标题为空</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"amount":100000.00,"loan_rate":16.5,"loan_term":10,"loan_date_type":1,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{'code': 1, 'msg': '标题为空'}</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>新增失败，标题格式错误</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":11111,"amount":100000.00,"loan_rate":16.5,"loan_term":10,"loan_date_type":1,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '格式错误'}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>执行不通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>新增失败，借款金额为空</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"按月借贷项目","loan_rate":16.5,"loan_term":10,"loan_date_type":1,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{'code': 1, 'msg': '借款金额为空'}</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>新增失败，借款金额为负</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"按月借贷项目","amount":-100000.00,"loan_rate":16.5,"loan_term":10,"loan_date_type":1,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '借款金额范围错误'}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>新增失败，借款金额三位小数</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"按月借贷项目","amount":100000.888,"loan_rate":16.5,"loan_term":10,"loan_date_type":1,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '借款金额范围错误'}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>新增失败，年利率为空</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"按月借贷项目","amount":100000.00,"loan_term":10,"loan_date_type":1,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{'code': 1, 'msg': '利率为空'}</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>新增失败，年利率为负</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"按月借贷项目","amount":100000.00,"loan_rate":-16.5,"loan_term":10,"loan_date_type":1,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '借款利率范围错误'}</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>新增失败，年利率三位小数</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"按月借贷项目","amount":100000.00,"loan_rate":16.555,"loan_term":10,"loan_date_type":1,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '借款利率范围错误'}</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>执行不通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>新增失败，借款期限为空</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"按月借贷项目","amount":100000.00,"loan_rate":16.5,"loan_date_type":1,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{'code': 1, 'msg': '借款期限为空'}</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>新增失败，按月借款期限超出范围</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"按月借贷项目","amount":100000.00,"loan_rate":16.5,"loan_term":100,"loan_date_type":1,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '借款期限单位为月的项目,期限范围为1到36个月(包含1个月和36个月)'}</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>新增失败，按天借款期限超出范围</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"按天借贷项目","amount":100000.00,"loan_rate":16.5,"loan_term":100,"loan_date_type":2,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '借款期限单位为天的项目,期限范围为10到45天(包含10天和45天)'}</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>新增失败，借款期限格式错误</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"按月借贷项目","amount":100000.00,"loan_rate":16.5,"loan_term":"abc","loan_date_type":1,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '格式错误'}</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>执行不通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>新增失败，借款期限类型为空</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"按月借贷项目","amount":100000.00,"loan_rate":16.5,"loan_term":10,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{'code': 1, 'msg': '借款日期类型为空'}</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>新增失败，借款期限类型超出范围</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"按月借贷项目","amount":100000.00,"loan_rate":16.5,"loan_term":10,"loan_date_type":5,"bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '借款类型不存在'}</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>新增失败，借款期限类型格式错误</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"按月借贷项目","amount":100000.00,"loan_rate":16.5,"loan_term":10,"loan_date_type":"a","bidding_days":8}</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '格式错误'}</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>执行不通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>新增失败，竞标天数为空</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"按月借贷项目","amount":100000.00,"loan_rate":16.5,"loan_term":10,"loan_date_type":1}</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>{'code': 1, 'msg': '竞标期限为空'}</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>新增失败，竞标天数超出范围</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"按月借贷项目","amount":100000.00,"loan_rate":16.5,"loan_term":10,"loan_date_type":1,"bidding_days":18}</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '竞标期限为1-10天'}</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>新增失败，竞标天数格式错误</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>loanadd</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"按月借贷项目","amount":100000.00,"loan_rate":16.5,"loan_term":10,"loan_date_type":1,"bidding_days":"xc"}</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '格式错误'}</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>执行不通过</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="17.775"/>
+    <col customWidth="1" max="3" min="3" width="10"/>
+    <col customWidth="1" max="6" min="6" width="40.8916666666667"/>
+    <col customWidth="1" max="7" min="7" width="47.5583333333333"/>
+    <col customWidth="1" max="8" min="8" width="16.8916666666667"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>审核通过</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>loanaudit</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>PATCH</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#,"approved_or_not":True}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': 'OK','status':2}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>SELECT status FROM futureloan.loan WHERE id={}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>审核不通过</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>loanaudit</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>PATCH</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#,"approved_or_not":False}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'code': 0, 'msg': 'OK','status':5}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>SELECT status FROM futureloan.loan WHERE id={}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>项目id不存在</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>loanaudit</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>PATCH</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{"loan_id":210455,"approved_or_not":True}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '项目不存在'}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>项目已被审核</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>loanaudit</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>PATCH</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{"loan_id":#pass_loan_id#,"approved_or_not":True}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '项目不在审核中状态'}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>项目为空</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>loanaudit</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>PATCH</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{"approved_or_not":True}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'code': 1, 'msg': '项目id为空'}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>审核结果为空</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>loanaudit</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>PATCH</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'code': 1, 'msg': 'approved_or_not为空'}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>项目id类型错误</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>loanaudit</t>
+        </is>
+      </c>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr">
+        <is>
+          <t>PATCH</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>{"loan_id":"asd","approved_or_not":True}</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '数值格式异常'}</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.25" r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>审核结果类型错误</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>loanaudit</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>PATCH</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#,"approved_or_not":1}</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{'code': 1, 'msg': 'approved_or_not只能为true或者false'}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/test_data/case.xlsx
+++ b/test_data/case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7710" windowWidth="19890"/>
+    <workbookView activeTab="6" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7710" windowWidth="19890"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" state="visible" r:id="rId1"/>
@@ -47,7 +47,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -69,6 +69,30 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -83,7 +107,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -98,22 +123,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -136,31 +147,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -168,15 +162,21 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -190,13 +190,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,43 +328,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,31 +352,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,78 +374,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -381,6 +381,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -402,82 +476,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,10 +487,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="14" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="22" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
@@ -499,133 +499,133 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="14" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="12" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="6" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="13" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="7" fillId="13" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="30" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="29" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3134,10 +3134,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -3145,8 +3145,8 @@
     <col customWidth="1" max="2" min="2" width="26.775"/>
     <col customWidth="1" max="4" min="4" width="16.8916666666667"/>
     <col customWidth="1" max="6" min="6" width="68"/>
-    <col customWidth="1" max="7" min="7" width="37.775"/>
-    <col customWidth="1" max="8" min="8" width="19.5583333333333"/>
+    <col customWidth="1" max="8" min="7" width="37.775"/>
+    <col customWidth="1" max="9" min="9" width="19.5583333333333"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3187,6 +3187,11 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>check_sql</t>
         </is>
       </c>
@@ -3225,9 +3230,6 @@
           <t>{'code': 0, 'msg': 'OK'}</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row customHeight="1" ht="14.25" r="3">
       <c r="A3" t="n">
@@ -3263,9 +3265,6 @@
           <t>{'code': 0, 'msg': 'OK'}</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row customHeight="1" ht="14.25" r="4">
       <c r="A4" t="n">
@@ -3300,9 +3299,6 @@
         <is>
           <t>{'code': 0, 'msg': 'OK'}</t>
         </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="5">
@@ -3633,8 +3629,8 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -4864,19 +4860,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="2" min="2" width="17.775"/>
     <col customWidth="1" max="3" min="3" width="10"/>
-    <col customWidth="1" max="6" min="6" width="40.8916666666667"/>
+    <col customWidth="1" max="6" min="6" width="66.125"/>
     <col customWidth="1" max="7" min="7" width="47.5583333333333"/>
-    <col customWidth="1" max="8" min="8" width="16.8916666666667"/>
+    <col customWidth="1" max="8" min="8" width="7.375"/>
+    <col customWidth="1" max="9" min="9" width="16.8916666666667"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4917,6 +4914,11 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>check_sql</t>
         </is>
       </c>
@@ -4957,6 +4959,11 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>执行通过</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>SELECT status FROM futureloan.loan WHERE id={}</t>
         </is>
       </c>
@@ -4997,6 +5004,11 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>执行不通过</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>SELECT status FROM futureloan.loan WHERE id={}</t>
         </is>
       </c>
@@ -5035,6 +5047,11 @@
           <t>{'code': 2, 'msg': '项目不存在'}</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="14.25" r="5">
       <c r="A5" t="n">
@@ -5070,6 +5087,11 @@
           <t>{'code': 2, 'msg': '项目不在审核中状态'}</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="14.25" r="6">
       <c r="A6" t="n">
@@ -5105,6 +5127,11 @@
           <t>{'code': 1, 'msg': '项目id为空'}</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="14.25" r="7">
       <c r="A7" t="n">
@@ -5140,6 +5167,11 @@
           <t>{'code': 1, 'msg': 'approved_or_not为空'}</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="14.25" r="8">
       <c r="A8" t="n">
@@ -5175,6 +5207,11 @@
           <t>{'code': 2, 'msg': '数值格式异常'}</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>执行通过</t>
+        </is>
+      </c>
     </row>
     <row customHeight="1" ht="14.25" r="9">
       <c r="A9" t="n">
@@ -5208,6 +5245,11 @@
       <c r="G9" t="inlineStr">
         <is>
           <t>{'code': 1, 'msg': 'approved_or_not只能为true或者false'}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>执行通过</t>
         </is>
       </c>
     </row>
